--- a/01.xlsx
+++ b/01.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berce\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berce\programming\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85835818-D6F2-4887-B956-4D79C7C53CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D938FE-DBB8-4436-806A-076F225E4392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{9278DF25-74CA-4234-B1E5-58621A7E1336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{9278DF25-74CA-4234-B1E5-58621A7E1336}"/>
   </bookViews>
   <sheets>
     <sheet name="Csotarto" sheetId="1" r:id="rId1"/>
     <sheet name="Hegesztes" sheetId="3" r:id="rId2"/>
     <sheet name="Csovezetek" sheetId="2" r:id="rId3"/>
     <sheet name="Karimaszereles" sheetId="5" r:id="rId4"/>
-    <sheet name="Nyomasproba" sheetId="6" r:id="rId5"/>
+    <sheet name="Nyomasproba" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -181,6 +181,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1094,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209461AD-532B-4A47-B3BD-F5D53EF03AF8}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,44 +1147,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2D8AB0-9B3B-4AB1-B216-8D6FCE474FDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07B976C-E80A-4000-8BE5-01EDE0FB41C7}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>56.508000000000003</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>60.3</v>
       </c>
     </row>
